--- a/similarities/split_global/harmonic_similarity_timestamps_147.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_147.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,718 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:00:00.866546', '0:00:12.917702')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'F']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Db']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:35.997000', '0:00:42.131000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:02:01.030000', '0:02:07.170000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=121.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E', 'E:7', 'A']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:16.192174', '0:00:27.488682')]</t>
+          <t>('0:00:43.140000', '0:01:00.240000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:05.110000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=16.192174']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['A:7', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:21.280000', '0:00:49.280000')]</t>
+          <t>('0:00:28.197000', '0:00:34.358000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:52.140000', '0:01:54.760000')]</t>
+          <t>('0:00:14.900000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=21.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=112.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=14.9</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_245</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min', 'D:maj/A']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min', 'F#:min', 'A']]</t>
+          <t>['A', 'A:7/3', 'D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:27.460000', '0:00:37.860000')]</t>
+          <t>('0:00:19.060000', '0:00:30.080000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:38.578071', '0:00:46.066507')]</t>
+          <t>('0:00:14.541510', '0:00:23.411533')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=27.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=19.06</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=38.578071']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=14.54151</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>isophonics_58</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>['Ab', 'Eb', 'Bb/3']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['F', 'C', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:22.379117', '0:02:29.240614')]</t>
+          <t>('0:00:25.942000', '0:00:29.102000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:03:37.911000', '0:03:43.713000')]</t>
+          <t>('0:00:41.895260', '0:00:54.712675')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=142.379117']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=25.942</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.911']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:01:10.519024', '0:01:22.732721')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:33.140000', '0:00:42.620000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=70.519024</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=33.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:41.520000', '0:00:46.940000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:39.976000', '0:00:44.640000')]</t>
+          <t>('0:00:15.530000', '0:00:16.900000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-36#t=41.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=39.976']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C/5', 'F/3', 'G/3', 'C']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'F#/4', 'B']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:15.371234', '0:02:18.803650')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:03.652000', '0:02:11.396000')]</t>
+          <t>('0:00:00.680000', '0:00:02.980000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=135.371234']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=123.652']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C#:min', 'G#:7', 'C#:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:24.282834', '0:00:31.446190')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:48.240000', '0:00:55.680000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=24.282834']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=48.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:53.940000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:11.160000', '0:00:16.300000')]</t>
+          <t>('0:00:08.700000', '0:00:18.300000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:00.220000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:02.612267', '0:00:17.443474')]</t>
+          <t>('0:00:47.060000', '0:00:59.980000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.22</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=47.06</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['C', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['A', 'E', 'B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:57.636679')]</t>
+          <t>('0:00:09.336000', '0:00:13.342000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:43.713000')]</t>
+          <t>('0:00:10.755440', '0:00:14.737663')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=10.75544</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>schubert-winterreise_212</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:49.260000', '0:00:52.760000'), ('0:01:51.620000', '0:02:06.860000')]</t>
+          <t>('0:00:59.640000', '0:01:02.580000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:56.400000', '0:02:58.860000'), ('0:00:21.820000', '0:00:28.320000')]</t>
+          <t>('0:00:23.460000', '0:00:26.480000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=49.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=111.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=59.64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=176.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=21.82']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-212#t=23.46</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:12.540000', '0:00:14.560000')]</t>
+          <t>('0:00:17.160000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:18.013446', '0:00:21.856349')]</t>
+          <t>('0:00:22.770000', '0:00:29.490000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=12.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=18.013446']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
